--- a/biology/Botanique/Georges_Eugène_Charles_Beauvisage/Georges_Eugène_Charles_Beauvisage.xlsx
+++ b/biology/Botanique/Georges_Eugène_Charles_Beauvisage/Georges_Eugène_Charles_Beauvisage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Eug%C3%A8ne_Charles_Beauvisage</t>
+          <t>Georges_Eugène_Charles_Beauvisage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Eugène Charles Beauvisage est un homme politique et un scientifique français, né à Paris le 29 janvier 1852, mort à Lyon le 8 avril 1925.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Eug%C3%A8ne_Charles_Beauvisage</t>
+          <t>Georges_Eugène_Charles_Beauvisage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord employé à la caisse des dépôts et consignations, de 1869 à 1875, où son père est chef de cabinet du directeur général, il poursuit des études de médecine à Paris, et devient docteur en médecine en 1881, puis agrégé d'histoire naturelle en 1883[1]. Chargé de cours de botanique  à la faculté de médecine de Lyon il est également directeur du Jardin Botanique de la faculté de médecine et de pharmacie de Lyon. Il obtient le diplôme de pharmacien en 1891. Il est nommé professeur titulaire en 1903. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord employé à la caisse des dépôts et consignations, de 1869 à 1875, où son père est chef de cabinet du directeur général, il poursuit des études de médecine à Paris, et devient docteur en médecine en 1881, puis agrégé d'histoire naturelle en 1883. Chargé de cours de botanique  à la faculté de médecine de Lyon il est également directeur du Jardin Botanique de la faculté de médecine et de pharmacie de Lyon. Il obtient le diplôme de pharmacien en 1891. Il est nommé professeur titulaire en 1903. 
 Il est l'un des artisans du développement du Jardin botanique de Lyon au Parc de la Tête d'Or. Il a beaucoup travaillé sur les collectes de Nouvelle-Calédonie du Révérend Père Xavier Montrouzier. Il a été membre de la Société botanique de France. 
 Il est élu sénateur du Rhône (1909-1920), membre du groupe de la Gauche démocratique. Depuis 1896, il était conseiller municipal puis adjoint au maire de Lyon.
-Il est promu officier de la Légion d'honneur en 1908[2].
+Il est promu officier de la Légion d'honneur en 1908.
 Il est mort le 8 avril 1925 à Lyon et est inhumé au cimetière du Père-Lachaise (4e division).
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georges_Eug%C3%A8ne_Charles_Beauvisage</t>
+          <t>Georges_Eugène_Charles_Beauvisage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contribution à l'étude des origines botaniques de la gutta-percha - Paris : G. Carpentier , 1881
 Les galles utiles - Paris : O. Doin , 1883
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Georges_Eug%C3%A8ne_Charles_Beauvisage</t>
+          <t>Georges_Eugène_Charles_Beauvisage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,13 +618,15 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre et deux espèces lui sont dédiés :
 Beauvisagea Pierre (famille des Sapotacées)
 Xanthostemon beauvisagei Pamp. (1905), Myrtacée de Nouvelle-Calédonie
 Palaquium beauvisagei Burck (1885), Sapotacée de Sumatra.
-Une rue de Lyon commémore son nom[3].
+Une rue de Lyon commémore son nom.
 </t>
         </is>
       </c>
